--- a/Численные методы/Интерполяция.xlsx
+++ b/Численные методы/Интерполяция.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>x:x(i)</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Исходные точные значения</t>
   </si>
   <si>
-    <t>Полипом. мн.</t>
-  </si>
-  <si>
     <t>y:y(i)</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Оранжевым выделены поля, которые необходимо заполнить</t>
+  </si>
+  <si>
+    <t>Полиномиальный многочлен</t>
+  </si>
+  <si>
+    <t>delta y(2)</t>
   </si>
 </sst>
 </file>
@@ -68,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -179,31 +182,31 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,14 +512,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="34.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
@@ -562,155 +565,155 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16">
-        <f>EXP(C1/3)</f>
-        <v>1.3956124250860895</v>
-      </c>
-      <c r="D2" s="16">
-        <f t="shared" ref="D2:I2" si="0">EXP(D1/3)</f>
-        <v>1.6487212707001282</v>
-      </c>
-      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <f>3^C1</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="15">
+        <f t="shared" ref="D2:I2" si="0">3^D1</f>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="E2" s="15">
         <f t="shared" si="0"/>
-        <v>1.9477340410546757</v>
-      </c>
-      <c r="F2" s="16">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15">
         <f t="shared" si="0"/>
-        <v>2.3009758908928251</v>
-      </c>
-      <c r="G2" s="16">
+        <v>15.588457268119901</v>
+      </c>
+      <c r="G2" s="15">
         <f t="shared" si="0"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="H2" s="16">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
         <f t="shared" si="0"/>
-        <v>3.2112705431535611</v>
-      </c>
-      <c r="I2" s="16">
+        <v>46.765371804359695</v>
+      </c>
+      <c r="I2" s="15">
         <f t="shared" si="0"/>
-        <v>3.7936678946831774</v>
+        <v>81</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <f>$B$22*(C1^3)+$B$23*(C1^2)+$B$24*(C1)+$B$25</f>
-        <v>1.3956124250860906</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:I3" si="1">$B$22*(D1^3)+$B$23*(D1^2)+$B$24*(D1)+$B$25</f>
-        <v>1.6497707183524102</v>
+        <v>5.9999999999999822</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="1"/>
-        <v>1.947734041054678</v>
+        <v>8.9999999999999574</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="1"/>
-        <v>2.3003039066158912</v>
+        <v>14.999999999999915</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="1"/>
-        <v>2.7182818284590464</v>
+        <v>26.999999999999858</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>3.2124693200071412</v>
+        <v>47.999999999999787</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="1"/>
-        <v>3.7936678946831726</v>
+        <v>80.999999999999687</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <f>ABS(C3-C2)</f>
-        <v>1.1102230246251565E-15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:I4" si="2">ABS(D3-D2)</f>
-        <v>1.0494476522819873E-3</v>
+        <v>0.80384757729335021</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>2.2204460492503131E-15</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="2"/>
-        <v>6.7198427693382357E-4</v>
+        <v>0.58845726811998667</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="2"/>
-        <v>1.3322676295501878E-15</v>
+        <v>1.4210854715202004E-13</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="2"/>
-        <v>1.1987768535801635E-3</v>
+        <v>1.2346281956400915</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>4.8849813083506888E-15</v>
+        <v>3.1263880373444408E-13</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <f>((C1-$E$1)*(C1-$G$1)*(C1-$I$1))/(($C$1-$E$1)*($C$1-$G$1)*($C$1-$I$1))*$C$2+((C1-$C$1)*(C1-$G$1)*(C1-$I$1))/(($E$1-$C$1)*($E$1-$G$1)*($E$1-$I$1))*$E$3+((C1-$C$1)*(C1-$E$1)*(C1-$I$1))/(($G$1-$C$1)*($G$1-$E$1)*($G$1-$I$1))*$G$3+((C1-$C$1)*(C1-$E$1)*(C1-$G$1))/(($I$1-$C$1)*($I$1-$E$1)*($I$1-$G$1))*$I$3</f>
-        <v>1.3956124250860895</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:I5" si="3">((D1-$E$1)*(D1-$G$1)*(D1-$I$1))/(($C$1-$E$1)*($C$1-$G$1)*($C$1-$I$1))*$C$2+((D1-$C$1)*(D1-$G$1)*(D1-$I$1))/(($E$1-$C$1)*($E$1-$G$1)*($E$1-$I$1))*$E$3+((D1-$C$1)*(D1-$E$1)*(D1-$I$1))/(($G$1-$C$1)*($G$1-$E$1)*($G$1-$I$1))*$G$3+((D1-$C$1)*(D1-$E$1)*(D1-$G$1))/(($I$1-$C$1)*($I$1-$E$1)*($I$1-$G$1))*$I$3</f>
-        <v>1.64977071835241</v>
+        <v>5.9999999999999858</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="3"/>
-        <v>1.947734041054678</v>
+        <v>8.9999999999999574</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>2.3003039066158908</v>
+        <v>14.999999999999917</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>2.7182818284590464</v>
+        <v>26.999999999999858</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>3.2124693200071412</v>
+        <v>47.99999999999978</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>3.7936678946831726</v>
+        <v>80.999999999999687</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <f>ABS(C5-C2)</f>
@@ -718,27 +721,27 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:I6" si="4">ABS(D5-D2)</f>
-        <v>1.0494476522817653E-3</v>
+        <v>0.80384757729335377</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>2.2204460492503131E-15</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="4"/>
-        <v>6.7198427693426765E-4</v>
+        <v>0.58845726811998489</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="4"/>
-        <v>1.3322676295501878E-15</v>
+        <v>1.4210854715202004E-13</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>1.1987768535801635E-3</v>
+        <v>1.2346281956400844</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="4"/>
-        <v>4.8849813083506888E-15</v>
+        <v>3.1263880373444408E-13</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -752,36 +755,36 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <f>C2</f>
-        <v>1.3956124250860895</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -789,21 +792,21 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <f>E2</f>
-        <v>1.9477340410546757</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -811,21 +814,21 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>27</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>3</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
       <c r="E11" s="3">
         <f>G2</f>
-        <v>2.7182818284590451</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -833,21 +836,21 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>64</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>16</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <f>I2</f>
-        <v>3.7936678946831774</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -866,10 +869,10 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14">
         <f>MDETERM(A9:D12)</f>
         <v>12.000000000000014</v>
       </c>
@@ -885,62 +888,62 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <f t="array" ref="A16:D19">MINVERSE(A9:D12)</f>
         <v>-0.16666666666666641</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>0.49999999999999933</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>-0.49999999999999967</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.16666666666666655</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>1.4999999999999982</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>-3.9999999999999951</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>3.4999999999999969</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>-0.99999999999999922</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>-4.3333333333333295</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>9.4999999999999893</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>-6.999999999999992</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>1.8333333333333313</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>3.9999999999999973</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>-5.9999999999999929</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>3.9999999999999947</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>-0.99999999999999867</v>
       </c>
       <c r="E19" s="10"/>
@@ -961,20 +964,20 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <f t="array" ref="B22:B25">MMULT(A16:D19,E9:E12)</f>
-        <v>1.4402017897329422E-2</v>
+        <v>3.9999999999999947</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2.2800978333914035E-2</v>
+      <c r="A23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-17.999999999999993</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -982,8 +985,8 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="15">
-        <v>0.38290455568553927</v>
+      <c r="B24" s="14">
+        <v>31.999999999999972</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -991,8 +994,8 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="15">
-        <v>0.9755048731693079</v>
+      <c r="B25" s="14">
+        <v>-14.999999999999972</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
